--- a/@Res/TalkLogger Setting sample.xlsx
+++ b/@Res/TalkLogger Setting sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ManabuTonosaki\source\repos\mtonosaki\TalkLogger\@Res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7508DB30-9AF4-4FFF-8175-853FD607D713}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472AA4BF-A191-4117-A8F2-3CD8BA27DB5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4103A610-2C6C-4A27-A9AA-840E11206AA4}"/>
   </bookViews>
@@ -728,7 +728,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
